--- a/csv/biomass.xlsx
+++ b/csv/biomass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yoshitaka-i/fba-minimum-model/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A17FA1-F942-0743-B1C5-B97232FBE8F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE89D59C-F8A1-A442-8959-949484C38851}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{202B6078-7537-BB4C-8225-5F8F81167ABD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="1" xr2:uid="{202B6078-7537-BB4C-8225-5F8F81167ABD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="112">
   <si>
     <t>Glutamate</t>
   </si>
@@ -269,6 +269,99 @@
   </si>
   <si>
     <t>Asparagine + ADP + Pi + H+ + NADPH</t>
+  </si>
+  <si>
+    <t>ACoA</t>
+  </si>
+  <si>
+    <t>NADPH</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>2G</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>ATP</t>
+  </si>
+  <si>
+    <t>ASP</t>
+  </si>
+  <si>
+    <t>↔</t>
+  </si>
+  <si>
+    <t>CoA</t>
+  </si>
+  <si>
+    <t>ADP</t>
+  </si>
+  <si>
+    <t>NADP</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>αKG</t>
+  </si>
+  <si>
+    <t>Acetate</t>
+  </si>
+  <si>
+    <t>2Pi</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Ppi</t>
+  </si>
+  <si>
+    <t>Fum</t>
+  </si>
+  <si>
+    <t>Arg</t>
+  </si>
+  <si>
+    <t>2NH3</t>
+  </si>
+  <si>
+    <t>OX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASP </t>
+  </si>
+  <si>
+    <t>HCO3</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>2 αKG</t>
+  </si>
+  <si>
+    <t>2 G</t>
+  </si>
+  <si>
+    <t>2 NH3</t>
+  </si>
+  <si>
+    <t>2 NADP</t>
+  </si>
+  <si>
+    <t>2 NADPH</t>
+  </si>
+  <si>
+    <t>2 H+</t>
+  </si>
+  <si>
+    <t>2 ATP</t>
   </si>
 </sst>
 </file>
@@ -298,7 +391,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +401,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,13 +453,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD78A134-269F-9940-AB12-2E093D885D11}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="165" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,115 +801,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>-0.38586999999999999</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -807,25 +921,25 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="12" t="s">
@@ -837,40 +951,40 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="12" t="s">
@@ -882,10 +996,10 @@
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="12" t="s">
@@ -897,25 +1011,25 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C16" s="12" t="s">
@@ -927,25 +1041,25 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -957,10 +1071,10 @@
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -972,30 +1086,30 @@
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="10">
         <v>-0.15967000000000001</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="9"/>
@@ -1014,47 +1128,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C7E30E-D093-B64B-90A0-ECD154631880}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView zoomScale="183" zoomScaleNormal="318" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="318" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="76.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.83203125" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B1" s="10"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1062,303 +1170,218 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="12">
-        <v>-0.38586999999999999</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="12">
-        <v>-0.15967000000000001</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B3" s="10"/>
+      <c r="D3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B4" s="10"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="E5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" tooltip="NADP" display="https://en.wikipedia.org/wiki/NADP" xr:uid="{C0CA05BE-490D-9E46-B74E-5F1D381B4519}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>